--- a/docs/output.xlsx
+++ b/docs/output.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>27.15</t>
         </is>
       </c>
     </row>

--- a/docs/output.xlsx
+++ b/docs/output.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>0.64</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.34</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>40.48</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>40.48</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>1.88</t>
         </is>
       </c>
     </row>

--- a/docs/output.xlsx
+++ b/docs/output.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -470,7 +470,7 @@
           <t>Material</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Kosten in €</t>
         </is>
@@ -501,9 +501,9 @@
           <t>S235JR</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.64</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.79</t>
         </is>
       </c>
     </row>
@@ -532,9 +532,9 @@
           <t>S235JR</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.34</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -563,9 +563,9 @@
           <t>S235JR</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2.56</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>27.15</t>
         </is>
       </c>
     </row>
@@ -594,9 +594,9 @@
           <t>S235JR</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3.76</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>40.48</t>
         </is>
       </c>
     </row>
@@ -625,9 +625,9 @@
           <t>S235JR</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.94</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.12</t>
         </is>
       </c>
     </row>
@@ -656,9 +656,9 @@
           <t>S355J2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3.76</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>40.48</t>
         </is>
       </c>
     </row>
@@ -687,9 +687,9 @@
           <t>S235JR</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.88</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20.24</t>
         </is>
       </c>
     </row>
